--- a/logs/resource-summary.xlsx
+++ b/logs/resource-summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Pizzo\Documents\College\DSU\semester 1\INFA-723\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aj/Documents/GitHub/quantum-resistant-performance/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7731BB-BBA6-4C7F-A3D5-9730AA240663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8EB4D-5508-B64F-A9C0-62D5CEE6DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{4EA9CAF8-3AA6-954F-876D-8884FB6552E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30180" windowHeight="25360" xr2:uid="{4EA9CAF8-3AA6-954F-876D-8884FB6552E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5429,7 +5429,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7297,16 +7296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>195514</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60159</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7334,15 +7333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7518</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29576</xdr:rowOff>
+      <xdr:colOff>7519</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30078</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>195512</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7369,16 +7368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1055267</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18101</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>154906</xdr:rowOff>
+      <xdr:rowOff>6740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>676776</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>20053</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8301,31 +8300,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D05437-2FE7-EE49-B77F-68B9A9A8B79C}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8347,7 +8346,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>95.11930000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>94.055799999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -8446,12 +8445,12 @@
         <v>96.603399999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>29.999218899999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>29.963671899999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>29.780078000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>27.393852399999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>32.826952999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>45.005247900000008</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>30.501367299999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>32.030468800000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -8561,7 +8560,7 @@
         <v>32.521093999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -8572,12 +8571,12 @@
         <v>14.296484599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>1.0073399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>1.0101200000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>1.0104400000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>6.23752</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>1.0085500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>7.6022000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>2.0232700000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -8676,7 +8675,7 @@
         <v>1.0084599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>1.0009700000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -8717,22 +8716,22 @@
       <selection activeCell="A3" sqref="A3:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>18.65625</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>19.375</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>19.46875</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>19.765625</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>19.953125</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>20.28125</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -8892,7 +8891,7 @@
         <v>20.34375</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>20.421875</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>20.46875</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>20.515625</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <f>AVERAGE(A3:A12)</f>
         <v>5.5</v>
@@ -8981,12 +8980,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>18.71875</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>19.34375</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>19.5625</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>19.578125</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -9106,7 +9105,7 @@
         <v>19.8125</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>19.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -9146,7 +9145,7 @@
         <v>20.015625</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>20.015625</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>20.078125</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>20.078125</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>AVERAGE(Table2[Run])</f>
         <v>5.5</v>
@@ -9235,12 +9234,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>18.15625</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>18.671875</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>19.015625</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>19.546875</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>19.59375</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>19.890625</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>19.90625</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>AVERAGE(Table3[Run])</f>
         <v>5.5</v>
@@ -9489,12 +9488,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>16.921875</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>17.140625</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>17.28125</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>17.453125</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>17.609375</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>8</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>17.734375</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>17.78125</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10</v>
       </c>
@@ -9714,7 +9713,7 @@
         <v>17.859375</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>AVERAGE(Table4[Run])</f>
         <v>5.5</v>
@@ -9743,12 +9742,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>21.4375</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>22.84375</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>22.96875</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>23.015625</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>23.03125</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>23.3125</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>23.359375</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>23.421875</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>23.421875</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>AVERAGE(Table5[Run])</f>
         <v>5.5</v>
@@ -9997,12 +9996,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>44.359375</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>45.671875</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -10082,7 +10081,7 @@
         <v>46.640625</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>47.28125</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>47.84375</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>6</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>48.078125</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>7</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>48.734375</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>8</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>49.4375</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>9</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>49.65625</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>10</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>49.90625</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>AVERAGE(Table6[Run])</f>
         <v>5.5</v>
@@ -10251,12 +10250,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>19.390625</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>20.03125</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>20.234375</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>20.375</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>20.515625</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>20.515625</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>20.53125</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>20.59375</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>21.671875</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>21.671875</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <f>AVERAGE(Table7[Run])</f>
         <v>5.5</v>
@@ -10505,12 +10504,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>20.53125</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>21.375</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>21.78125</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>22.0625</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>22.296875</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>22.46875</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>7</v>
       </c>
@@ -10670,7 +10669,7 @@
         <v>22.65625</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>22.671875</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>22.734375</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>22.890625</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <f>AVERAGE(Table8[Run])</f>
         <v>5.5</v>
@@ -10759,12 +10758,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>26.488299999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>27.488299999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>4</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>7</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>8</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>9</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>10</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>27.613299999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f>AVERAGE(Table9[Run])</f>
         <v>5.5</v>
@@ -11013,12 +11012,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -11058,7 +11057,7 @@
         <v>12.625</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>3</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>4</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>5</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>7</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -11198,7 +11197,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>9</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>10</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f>AVERAGE(Table10[Run])</f>
         <v>5.5</v>
@@ -11289,17 +11288,17 @@
       <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -11309,7 +11308,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>29.964843999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>29.992187999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>29.996093999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>29.996093999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -11469,7 +11468,7 @@
         <v>29.996093999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -11489,7 +11488,7 @@
         <v>30.019531000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>29.996093999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>30.03125</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>AVERAGE(Table11[Run])</f>
         <v>5.5</v>
@@ -11558,7 +11557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11566,7 +11565,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -11576,7 +11575,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>29.929687999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -11636,7 +11635,7 @@
         <v>29.953125</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>29.953125</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>29.953125</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>29.976562000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>29.957031000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>29.980468999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>8</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>29.957031000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>9</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>29.980468999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>10</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>29.996093999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f>AVERAGE(Table12[Run])</f>
         <v>5.5</v>
@@ -11825,7 +11824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11833,7 +11832,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -11843,7 +11842,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>29.757812000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -11903,7 +11902,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -11963,7 +11962,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>6</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>7</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>29.785156000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>8</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>29.78125</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>9</v>
       </c>
@@ -12043,7 +12042,7 @@
         <v>29.785156000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>10</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>29.785156000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f>AVERAGE(Table13[Run])</f>
         <v>5.5</v>
@@ -12092,7 +12091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -12100,7 +12099,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -12110,7 +12109,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>27.359375</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>27.367187999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>3</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>27.371093999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>4</v>
       </c>
@@ -12210,7 +12209,7 @@
         <v>27.375</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>5</v>
       </c>
@@ -12230,7 +12229,7 @@
         <v>27.445312000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>6</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>27.402343999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>27.433593999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>8</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>27.4375</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>9</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>27.4375</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>10</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>27.464843999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <f>AVERAGE(A45:A54)</f>
         <v>5.5</v>
@@ -12359,7 +12358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -12367,7 +12366,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>11</v>
       </c>
@@ -12377,7 +12376,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -12417,7 +12416,7 @@
         <v>32.800781000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>2</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>32.910156000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>32.832031000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>4</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>32.832031000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>5</v>
       </c>
@@ -12497,7 +12496,7 @@
         <v>32.828125</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>6</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>32.769531000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>7</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>32.839843999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>8</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>32.839843999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>32.851562000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>10</v>
       </c>
@@ -12597,7 +12596,7 @@
         <v>32.765625</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <f>AVERAGE(Table15[Run])</f>
         <v>5.5</v>
@@ -12626,7 +12625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -12634,7 +12633,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
@@ -12644,7 +12643,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>45.234375</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>2</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>45.179687999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>3</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>45.617187999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>4</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>45.429687999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>5</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>45.765625</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>6</v>
       </c>
@@ -12784,7 +12783,7 @@
         <v>45.722656000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>7</v>
       </c>
@@ -12804,7 +12803,7 @@
         <v>45.457031000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>8</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>45.554687999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>9</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>45.386718999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>10</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>45.40625</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <f>AVERAGE(Table16[Run])</f>
         <v>5.5</v>
@@ -12893,7 +12892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12901,7 +12900,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>13</v>
       </c>
@@ -12911,7 +12910,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>0</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>30.535156000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>2</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>30.542968999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>30.523437999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>4</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>30.527343999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>5</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>30.539062000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>6</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>30.554687999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>7</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v>30.554687999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>8</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>30.476562000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>9</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>30.574218999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>10</v>
       </c>
@@ -13131,7 +13130,7 @@
         <v>30.546875</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <f>AVERAGE(Table17[Run])</f>
         <v>5.5</v>
@@ -13160,7 +13159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -13168,7 +13167,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -13178,7 +13177,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>0</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -13218,7 +13217,7 @@
         <v>31.917968999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>2</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>32.035156000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>3</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>32.027343999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>4</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>32.011718999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>5</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>32.03125</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>6</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>7</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v>31.960937999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>8</v>
       </c>
@@ -13358,7 +13357,7 @@
         <v>32.125</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>9</v>
       </c>
@@ -13378,7 +13377,7 @@
         <v>32.09375</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>10</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>32.101562000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <f>AVERAGE(Table18[Run])</f>
         <v>5.5</v>
@@ -13427,7 +13426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -13435,7 +13434,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>14</v>
       </c>
@@ -13445,7 +13444,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>0</v>
       </c>
@@ -13465,7 +13464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>1</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>31.621093999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>2</v>
       </c>
@@ -13505,7 +13504,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>3</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>4</v>
       </c>
@@ -13545,7 +13544,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>5</v>
       </c>
@@ -13565,7 +13564,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>6</v>
       </c>
@@ -13585,7 +13584,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>7</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>8</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>9</v>
       </c>
@@ -13645,7 +13644,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>10</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>32.621093999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <f>AVERAGE(Table19[Run])</f>
         <v>5.5</v>
@@ -13694,7 +13693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -13702,7 +13701,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>16</v>
       </c>
@@ -13712,7 +13711,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>0</v>
       </c>
@@ -13732,7 +13731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>1</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>14.046875</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>2</v>
       </c>
@@ -13772,7 +13771,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>3</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>4</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>5</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>6</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>7</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>8</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>9</v>
       </c>
@@ -13912,7 +13911,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>10</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>14.324218999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <f>AVERAGE(Table20[Run])</f>
         <v>5.5</v>
